--- a/cocos-prog/03-tool/gj/race.xlsx
+++ b/cocos-prog/03-tool/gj/race.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>标题</t>
   </si>
@@ -41,7 +41,7 @@
     <t>繁體</t>
   </si>
   <si>
-    <t>主城id</t>
+    <t>对应势力nation</t>
   </si>
   <si>
     <t>血量</t>
@@ -104,13 +104,25 @@
     <t>人族</t>
   </si>
   <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
     <t>妖族</t>
   </si>
   <si>
+    <t>[6]</t>
+  </si>
+  <si>
     <t>鬼族</t>
   </si>
   <si>
+    <t>[5]</t>
+  </si>
+  <si>
     <t>仙族</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1424,7 +1436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1437,59 +1449,128 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-prog/03-tool/gj/race.xlsx
+++ b/cocos-prog/03-tool/gj/race.xlsx
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1455,6 +1455,9 @@
       <c r="F4">
         <v>100</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>10</v>
       </c>

--- a/cocos-prog/03-tool/gj/race.xlsx
+++ b/cocos-prog/03-tool/gj/race.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680"/>
+    <workbookView windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,25 +104,25 @@
     <t>人族</t>
   </si>
   <si>
-    <t>[1,2]</t>
+    <t>[1001,1002]</t>
   </si>
   <si>
     <t>妖族</t>
   </si>
   <si>
-    <t>[6]</t>
+    <t>[1006]</t>
   </si>
   <si>
     <t>鬼族</t>
   </si>
   <si>
-    <t>[5]</t>
+    <t>[1005]</t>
   </si>
   <si>
     <t>仙族</t>
   </si>
   <si>
-    <t>[3,4]</t>
+    <t>[1003,1004]</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
